--- a/writeup/seccon2016.xlsx
+++ b/writeup/seccon2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" state="visible" r:id="rId2"/>
@@ -989,7 +989,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1019,14 +1019,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1125,19 +1117,19 @@
   </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="16.5340909090909"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.6590909090909"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.5340909090909"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.2215909090909"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="96.9659090909091"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="77.1193181818182"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="16.5340909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="19.8465909090909"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.6761363636364"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="19.8465909090909"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.3295454545455"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="117.556818181818"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="93.5056818181818"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="19.8465909090909"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,7 +1366,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="0"/>
+      <c r="F14" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="G14" s="5" t="s">
         <v>32</v>
       </c>
@@ -1495,7 +1489,9 @@
       <c r="E21" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="6" t="s">
         <v>32</v>
       </c>
@@ -1506,9 +1502,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="F22" s="0"/>
       <c r="G22" s="6" t="s">
         <v>40</v>
       </c>
@@ -1519,9 +1513,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="F23" s="0"/>
       <c r="G23" s="6" t="s">
         <v>41</v>
       </c>
@@ -1795,16 +1787,16 @@
   </sheetPr>
   <dimension ref="B1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3693181818182"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7556818181818"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1193181818182"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,15 +1859,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="12.8295454545455"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="116.386363636364"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8522727272727"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="141.3125"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1883,7 +1875,7 @@
       <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1894,7 +1886,7 @@
       <c r="B3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1929,9 +1921,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5340909090909"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="217.380681818182"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.5340909090909"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8465909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="263.681818181818"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="19.8465909090909"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1942,7 +1934,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1950,7 +1942,7 @@
       <c r="B6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1958,37 +1950,37 @@
       <c r="B8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1996,32 +1988,32 @@
       <c r="B16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2029,42 +2021,42 @@
       <c r="B23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="9" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2072,22 +2064,22 @@
       <c r="B32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2118,254 +2110,254 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5340909090909"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="238.573863636364"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="16.5340909090909"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8465909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="289.386363636364"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="19.8465909090909"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="11" t="s">
         <v>132</v>
       </c>
     </row>

--- a/writeup/seccon2016.xlsx
+++ b/writeup/seccon2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="144">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -74,6 +74,21 @@
     <t xml:space="preserve">https://ctf.rip/seccon-2016-quals-memory-analysis-forensics-challenge/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://nacayoshi00.wordpress.com/2016/12/12/seccon-2016-online-writeup/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://blog.monora.me/2016/12/seccon-2016-online-ctf-write-up/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→答え</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://crattack.tistory.com/entry/Data-Science-import-pandas-as-pd</t>
+  </si>
+  <si>
     <t xml:space="preserve">biscuiti</t>
   </si>
   <si>
@@ -123,6 +138,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://st98.github.io/diary/posts/2016-12-11-seccon-2016-online.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よく似た問題</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://157.7.53.197/page2.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　その解答</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://blog.macnica.net/blog/files/MNCTF_Answer.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blind SQLi説明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://blog.tokumaru.org/2012/12/blind-sql-injection-php-exploit.html</t>
   </si>
   <si>
     <t xml:space="preserve">jmper</t>
@@ -1115,21 +1148,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="19.8465909090909"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="33.6761363636364"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="19.8465909090909"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.3295454545455"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="117.556818181818"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="93.5056818181818"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="19.8465909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="21.7954545454545"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.1306818181818"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="21.7954545454545"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.4715909090909"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="129.4375"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="102.977272727273"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="21.7954545454545"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,7 +1275,7 @@
       <c r="E7" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="0"/>
       <c r="G7" s="6" t="s">
         <v>15</v>
       </c>
@@ -1250,287 +1283,274 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>387</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>35</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A13" s="0"/>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="F13" s="0"/>
-      <c r="G13" s="5" t="s">
-        <v>31</v>
+        <v>115</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>32</v>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>387</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
       <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="0"/>
+        <v>31</v>
+      </c>
+      <c r="F16" s="0"/>
+      <c r="G16" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="0"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0"/>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="0"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="0"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="0"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="0"/>
@@ -1538,16 +1558,16 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="0"/>
@@ -1555,16 +1575,16 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0"/>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="0"/>
@@ -1572,67 +1592,59 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="0"/>
+        <v>43</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0"/>
-      <c r="B28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="0"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
-      <c r="B29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="0"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>400</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="0"/>
@@ -1640,16 +1652,16 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="0"/>
@@ -1657,16 +1669,16 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="0"/>
@@ -1674,16 +1686,16 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="0"/>
@@ -1691,16 +1703,16 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="0"/>
@@ -1708,26 +1720,128 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="0"/>
+      <c r="A36" s="0"/>
+      <c r="B36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="0"/>
+      <c r="G42" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1737,38 +1851,44 @@
     <hyperlink ref="B6" r:id="rId4" display="VoIP"/>
     <hyperlink ref="B7" r:id="rId5" display="Memory Analysis"/>
     <hyperlink ref="G7" r:id="rId6" display="https://ctf.rip/seccon-2016-quals-memory-analysis-forensics-challenge/"/>
-    <hyperlink ref="B8" r:id="rId7" display="biscuiti"/>
-    <hyperlink ref="B9" r:id="rId8" display="chat"/>
-    <hyperlink ref="B10" r:id="rId9" display="cheer msg"/>
-    <hyperlink ref="G10" r:id="rId10" display="https://github.com/Inndy/ctf-writeup/tree/master/2016-seccon/cheer_msg"/>
-    <hyperlink ref="B11" r:id="rId11" display="Anti-Debugging"/>
-    <hyperlink ref="G11" r:id="rId12" display="http://qiita.com/nicklegr/items/7d274bdb6b5b3b84ae34"/>
-    <hyperlink ref="G12" r:id="rId13" display="https://0xd13a.github.io/ctfs/seccon2016/anti-debugging/"/>
-    <hyperlink ref="B13" r:id="rId14" display="basiq"/>
-    <hyperlink ref="G13" r:id="rId15" display="https://github.com/p4-team/ctf/blob/master/2016-12-10-seccon-2016-quals/web_100_basiq/README.md"/>
-    <hyperlink ref="G14" r:id="rId16" display="https://st98.github.io/diary/posts/2016-12-11-seccon-2016-online.html"/>
-    <hyperlink ref="B15" r:id="rId17" display="jmper"/>
-    <hyperlink ref="B16" r:id="rId18" display="mboard"/>
-    <hyperlink ref="B17" r:id="rId19" display="AlphaComplex1"/>
-    <hyperlink ref="B18" r:id="rId20" display="PNG over Telegraph"/>
-    <hyperlink ref="B19" r:id="rId21" display="tinypad"/>
-    <hyperlink ref="B20" r:id="rId22" display="logger"/>
-    <hyperlink ref="B21" r:id="rId23" display="pppppoxy"/>
-    <hyperlink ref="G21" r:id="rId24" display="https://st98.github.io/diary/posts/2016-12-11-seccon-2016-online.html"/>
-    <hyperlink ref="G22" r:id="rId25" display="http://takahoyo.hatenablog.com/entry/2016/12/12/231355"/>
-    <hyperlink ref="G23" r:id="rId26" display="http://kkrnt.hatenablog.com/entry/2016/12/15/221858"/>
-    <hyperlink ref="B24" r:id="rId27" display="ropsynth"/>
-    <hyperlink ref="B25" r:id="rId28" display="microcomputer"/>
-    <hyperlink ref="B26" r:id="rId29" display="Backpacker's Capricious Cipher"/>
-    <hyperlink ref="B27" r:id="rId30" display="uncomfortable web"/>
-    <hyperlink ref="B28" r:id="rId31" display="randomware"/>
-    <hyperlink ref="B29" r:id="rId32" display="checker"/>
-    <hyperlink ref="B30" r:id="rId33" display="Missile"/>
-    <hyperlink ref="B31" r:id="rId34" display="Retrospective"/>
-    <hyperlink ref="B32" r:id="rId35" display="Obfuscated AES"/>
-    <hyperlink ref="B33" r:id="rId36" display="shopping"/>
-    <hyperlink ref="B34" r:id="rId37" display="Lost Decryption"/>
-    <hyperlink ref="B35" r:id="rId38" display="AlphaComplex2 [LAST]"/>
+    <hyperlink ref="G8" r:id="rId7" display="https://nacayoshi00.wordpress.com/2016/12/12/seccon-2016-online-writeup/"/>
+    <hyperlink ref="G9" r:id="rId8" display="http://blog.monora.me/2016/12/seccon-2016-online-ctf-write-up/"/>
+    <hyperlink ref="G10" r:id="rId9" display="http://crattack.tistory.com/entry/Data-Science-import-pandas-as-pd"/>
+    <hyperlink ref="B11" r:id="rId10" display="biscuiti"/>
+    <hyperlink ref="B12" r:id="rId11" display="chat"/>
+    <hyperlink ref="B13" r:id="rId12" display="cheer msg"/>
+    <hyperlink ref="G13" r:id="rId13" display="https://github.com/Inndy/ctf-writeup/tree/master/2016-seccon/cheer_msg"/>
+    <hyperlink ref="B14" r:id="rId14" display="Anti-Debugging"/>
+    <hyperlink ref="G14" r:id="rId15" display="http://qiita.com/nicklegr/items/7d274bdb6b5b3b84ae34"/>
+    <hyperlink ref="G15" r:id="rId16" display="https://0xd13a.github.io/ctfs/seccon2016/anti-debugging/"/>
+    <hyperlink ref="B16" r:id="rId17" display="basiq"/>
+    <hyperlink ref="G16" r:id="rId18" display="https://github.com/p4-team/ctf/blob/master/2016-12-10-seccon-2016-quals/web_100_basiq/README.md"/>
+    <hyperlink ref="G17" r:id="rId19" display="https://st98.github.io/diary/posts/2016-12-11-seccon-2016-online.html"/>
+    <hyperlink ref="G18" r:id="rId20" display="http://157.7.53.197/page2.php"/>
+    <hyperlink ref="G19" r:id="rId21" display="http://blog.macnica.net/blog/files/MNCTF_Answer.pdf"/>
+    <hyperlink ref="G20" r:id="rId22" display="http://blog.tokumaru.org/2012/12/blind-sql-injection-php-exploit.html"/>
+    <hyperlink ref="B21" r:id="rId23" display="jmper"/>
+    <hyperlink ref="B22" r:id="rId24" display="mboard"/>
+    <hyperlink ref="B23" r:id="rId25" display="AlphaComplex1"/>
+    <hyperlink ref="B24" r:id="rId26" display="PNG over Telegraph"/>
+    <hyperlink ref="B25" r:id="rId27" display="tinypad"/>
+    <hyperlink ref="B26" r:id="rId28" display="logger"/>
+    <hyperlink ref="B27" r:id="rId29" display="pppppoxy"/>
+    <hyperlink ref="G27" r:id="rId30" display="https://st98.github.io/diary/posts/2016-12-11-seccon-2016-online.html"/>
+    <hyperlink ref="G28" r:id="rId31" display="http://takahoyo.hatenablog.com/entry/2016/12/12/231355"/>
+    <hyperlink ref="G29" r:id="rId32" display="http://kkrnt.hatenablog.com/entry/2016/12/15/221858"/>
+    <hyperlink ref="B30" r:id="rId33" display="ropsynth"/>
+    <hyperlink ref="B31" r:id="rId34" display="microcomputer"/>
+    <hyperlink ref="B32" r:id="rId35" display="Backpacker's Capricious Cipher"/>
+    <hyperlink ref="B33" r:id="rId36" display="uncomfortable web"/>
+    <hyperlink ref="B34" r:id="rId37" display="randomware"/>
+    <hyperlink ref="B35" r:id="rId38" display="checker"/>
+    <hyperlink ref="B36" r:id="rId39" display="Missile"/>
+    <hyperlink ref="B37" r:id="rId40" display="Retrospective"/>
+    <hyperlink ref="B38" r:id="rId41" display="Obfuscated AES"/>
+    <hyperlink ref="B39" r:id="rId42" display="shopping"/>
+    <hyperlink ref="B40" r:id="rId43" display="Lost Decryption"/>
+    <hyperlink ref="B41" r:id="rId44" display="AlphaComplex2 [LAST]"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1793,43 +1913,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.47159090909091"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1193181818182"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.375"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5056818181818"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.2784090909091"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.375"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1854,16 +1974,16 @@
   <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.47159090909091"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8522727272727"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.47159090909091"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="141.3125"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.375"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1079545454545"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.375"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="155.590909090909"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.375"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,24 +1993,24 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1921,21 +2041,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8465909090909"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="263.681818181818"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="19.8465909090909"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7954545454545"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="290.443181818182"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="21.7954545454545"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,7 +2063,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,37 +2071,37 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="9" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,32 +2109,32 @@
     </row>
     <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2022,42 +2142,42 @@
     </row>
     <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,22 +2185,22 @@
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2110,9 +2230,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8465909090909"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="289.386363636364"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="19.8465909090909"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7954545454545"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="318.852272727273"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="21.7954545454545"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2123,242 +2243,242 @@
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="9" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="9" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="11" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="11" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="11" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="11" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="11" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="11" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="11" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="11" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="11" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="11" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="11" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="9" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="11" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="11" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="11" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="11" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="11" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="11" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="11" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="11" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="11" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="11" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="11" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/writeup/seccon2016.xlsx
+++ b/writeup/seccon2016.xlsx
@@ -1150,8 +1150,8 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1974,7 +1974,7 @@
   <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/writeup/seccon2016.xlsx
+++ b/writeup/seccon2016.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="150">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -110,6 +110,9 @@
     <t xml:space="preserve">パス</t>
   </si>
   <si>
+    <t xml:space="preserve">http://shift-crops.hatenablog.com/entry/2016/12/11/155902</t>
+  </si>
+  <si>
     <t xml:space="preserve">Anti-Debugging</t>
   </si>
   <si>
@@ -176,6 +179,9 @@
     <t xml:space="preserve">logger</t>
   </si>
   <si>
+    <t xml:space="preserve">説明済み</t>
+  </si>
+  <si>
     <t xml:space="preserve">pppppoxy</t>
   </si>
   <si>
@@ -185,6 +191,9 @@
     <t xml:space="preserve">http://kkrnt.hatenablog.com/entry/2016/12/15/221858</t>
   </si>
   <si>
+    <t xml:space="preserve">http://qiita.com/kusano_k/items/047595d34142713b4dcf</t>
+  </si>
+  <si>
     <t xml:space="preserve">ropsynth</t>
   </si>
   <si>
@@ -252,6 +261,15 @@
   </si>
   <si>
     <t xml:space="preserve">http://hp.vector.co.jp/authors/VA028184/OllyDbgQA.htm#O10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lib32z1　等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64bitLinuxで32bitアプリの動作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sonickun.hatenablog.com/entry/2014/06/09/233801</t>
   </si>
   <si>
     <t xml:space="preserve">CTFtimes</t>
@@ -1148,21 +1166,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="21.7954545454545"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.1306818181818"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="21.7954545454545"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.4715909090909"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="129.4375"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="102.977272727273"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="21.7954545454545"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="31.7215909090909"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="54.4204545454546"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="31.7215909090909"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.2613636363636"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="190.318181818182"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="151.386363636364"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="31.7215909090909"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,67 +1401,66 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>387</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>387</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="0"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="F16" s="0"/>
-      <c r="G16" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="F17" s="0"/>
       <c r="G17" s="5" t="s">
         <v>37</v>
       </c>
@@ -1455,10 +1472,10 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,10 +1485,10 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,28 +1498,24 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0"/>
@@ -1513,10 +1526,10 @@
         <v>24</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="0"/>
@@ -1527,13 +1540,13 @@
         <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="0"/>
@@ -1550,7 +1563,7 @@
         <v>300</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="0"/>
@@ -1561,13 +1574,13 @@
         <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>300</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="0"/>
@@ -1595,30 +1608,38 @@
         <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F28" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="0"/>
       <c r="G28" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1629,56 +1650,44 @@
       <c r="E29" s="2"/>
       <c r="F29" s="0"/>
       <c r="G29" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
-      <c r="B30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="0"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
-      <c r="B31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="0"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="0"/>
@@ -1686,16 +1695,16 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="0"/>
@@ -1703,16 +1712,16 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="0"/>
@@ -1720,16 +1729,16 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>300</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="0"/>
@@ -1737,16 +1746,16 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="0"/>
@@ -1754,16 +1763,16 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="0"/>
@@ -1771,16 +1780,16 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
       <c r="B38" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="0"/>
@@ -1791,13 +1800,13 @@
         <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="0"/>
@@ -1808,13 +1817,13 @@
         <v>64</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="0"/>
@@ -1822,26 +1831,60 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0"/>
       <c r="B41" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="0"/>
+      <c r="A42" s="0"/>
+      <c r="B42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="F42" s="2"/>
       <c r="G42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0"/>
+      <c r="B43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="0"/>
+      <c r="G44" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1858,37 +1901,39 @@
     <hyperlink ref="B12" r:id="rId11" display="chat"/>
     <hyperlink ref="B13" r:id="rId12" display="cheer msg"/>
     <hyperlink ref="G13" r:id="rId13" display="https://github.com/Inndy/ctf-writeup/tree/master/2016-seccon/cheer_msg"/>
-    <hyperlink ref="B14" r:id="rId14" display="Anti-Debugging"/>
-    <hyperlink ref="G14" r:id="rId15" display="http://qiita.com/nicklegr/items/7d274bdb6b5b3b84ae34"/>
-    <hyperlink ref="G15" r:id="rId16" display="https://0xd13a.github.io/ctfs/seccon2016/anti-debugging/"/>
-    <hyperlink ref="B16" r:id="rId17" display="basiq"/>
-    <hyperlink ref="G16" r:id="rId18" display="https://github.com/p4-team/ctf/blob/master/2016-12-10-seccon-2016-quals/web_100_basiq/README.md"/>
-    <hyperlink ref="G17" r:id="rId19" display="https://st98.github.io/diary/posts/2016-12-11-seccon-2016-online.html"/>
-    <hyperlink ref="G18" r:id="rId20" display="http://157.7.53.197/page2.php"/>
-    <hyperlink ref="G19" r:id="rId21" display="http://blog.macnica.net/blog/files/MNCTF_Answer.pdf"/>
-    <hyperlink ref="G20" r:id="rId22" display="http://blog.tokumaru.org/2012/12/blind-sql-injection-php-exploit.html"/>
-    <hyperlink ref="B21" r:id="rId23" display="jmper"/>
-    <hyperlink ref="B22" r:id="rId24" display="mboard"/>
-    <hyperlink ref="B23" r:id="rId25" display="AlphaComplex1"/>
-    <hyperlink ref="B24" r:id="rId26" display="PNG over Telegraph"/>
-    <hyperlink ref="B25" r:id="rId27" display="tinypad"/>
-    <hyperlink ref="B26" r:id="rId28" display="logger"/>
-    <hyperlink ref="B27" r:id="rId29" display="pppppoxy"/>
-    <hyperlink ref="G27" r:id="rId30" display="https://st98.github.io/diary/posts/2016-12-11-seccon-2016-online.html"/>
-    <hyperlink ref="G28" r:id="rId31" display="http://takahoyo.hatenablog.com/entry/2016/12/12/231355"/>
-    <hyperlink ref="G29" r:id="rId32" display="http://kkrnt.hatenablog.com/entry/2016/12/15/221858"/>
-    <hyperlink ref="B30" r:id="rId33" display="ropsynth"/>
-    <hyperlink ref="B31" r:id="rId34" display="microcomputer"/>
-    <hyperlink ref="B32" r:id="rId35" display="Backpacker's Capricious Cipher"/>
-    <hyperlink ref="B33" r:id="rId36" display="uncomfortable web"/>
-    <hyperlink ref="B34" r:id="rId37" display="randomware"/>
-    <hyperlink ref="B35" r:id="rId38" display="checker"/>
-    <hyperlink ref="B36" r:id="rId39" display="Missile"/>
-    <hyperlink ref="B37" r:id="rId40" display="Retrospective"/>
-    <hyperlink ref="B38" r:id="rId41" display="Obfuscated AES"/>
-    <hyperlink ref="B39" r:id="rId42" display="shopping"/>
-    <hyperlink ref="B40" r:id="rId43" display="Lost Decryption"/>
-    <hyperlink ref="B41" r:id="rId44" display="AlphaComplex2 [LAST]"/>
+    <hyperlink ref="G14" r:id="rId14" display="http://shift-crops.hatenablog.com/entry/2016/12/11/155902"/>
+    <hyperlink ref="B15" r:id="rId15" display="Anti-Debugging"/>
+    <hyperlink ref="G15" r:id="rId16" display="http://qiita.com/nicklegr/items/7d274bdb6b5b3b84ae34"/>
+    <hyperlink ref="G16" r:id="rId17" display="https://0xd13a.github.io/ctfs/seccon2016/anti-debugging/"/>
+    <hyperlink ref="B17" r:id="rId18" display="basiq"/>
+    <hyperlink ref="G17" r:id="rId19" display="https://github.com/p4-team/ctf/blob/master/2016-12-10-seccon-2016-quals/web_100_basiq/README.md"/>
+    <hyperlink ref="G18" r:id="rId20" display="https://st98.github.io/diary/posts/2016-12-11-seccon-2016-online.html"/>
+    <hyperlink ref="G19" r:id="rId21" display="http://157.7.53.197/page2.php"/>
+    <hyperlink ref="G20" r:id="rId22" display="http://blog.macnica.net/blog/files/MNCTF_Answer.pdf"/>
+    <hyperlink ref="G21" r:id="rId23" display="http://blog.tokumaru.org/2012/12/blind-sql-injection-php-exploit.html"/>
+    <hyperlink ref="B22" r:id="rId24" display="jmper"/>
+    <hyperlink ref="B23" r:id="rId25" display="mboard"/>
+    <hyperlink ref="B24" r:id="rId26" display="AlphaComplex1"/>
+    <hyperlink ref="B25" r:id="rId27" display="PNG over Telegraph"/>
+    <hyperlink ref="B26" r:id="rId28" display="tinypad"/>
+    <hyperlink ref="B27" r:id="rId29" display="logger"/>
+    <hyperlink ref="B28" r:id="rId30" display="pppppoxy"/>
+    <hyperlink ref="G28" r:id="rId31" display="https://st98.github.io/diary/posts/2016-12-11-seccon-2016-online.html"/>
+    <hyperlink ref="G29" r:id="rId32" display="http://takahoyo.hatenablog.com/entry/2016/12/12/231355"/>
+    <hyperlink ref="G30" r:id="rId33" display="http://kkrnt.hatenablog.com/entry/2016/12/15/221858"/>
+    <hyperlink ref="G31" r:id="rId34" display="http://qiita.com/kusano_k/items/047595d34142713b4dcf"/>
+    <hyperlink ref="B32" r:id="rId35" display="ropsynth"/>
+    <hyperlink ref="B33" r:id="rId36" display="microcomputer"/>
+    <hyperlink ref="B34" r:id="rId37" display="Backpacker's Capricious Cipher"/>
+    <hyperlink ref="B35" r:id="rId38" display="uncomfortable web"/>
+    <hyperlink ref="B36" r:id="rId39" display="randomware"/>
+    <hyperlink ref="B37" r:id="rId40" display="checker"/>
+    <hyperlink ref="B38" r:id="rId41" display="Missile"/>
+    <hyperlink ref="B39" r:id="rId42" display="Retrospective"/>
+    <hyperlink ref="B40" r:id="rId43" display="Obfuscated AES"/>
+    <hyperlink ref="B41" r:id="rId44" display="shopping"/>
+    <hyperlink ref="B42" r:id="rId45" display="Lost Decryption"/>
+    <hyperlink ref="B43" r:id="rId46" display="AlphaComplex2 [LAST]"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1905,56 +1950,66 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:E3"/>
+  <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.375"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5056818181818"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.2784090909091"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.375"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6306818181818"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.0625"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" location="O10" display="http://hp.vector.co.jp/authors/VA028184/OllyDbgQA.htm#O10"/>
+    <hyperlink ref="E4" r:id="rId2" display="http://sonickun.hatenablog.com/entry/2014/06/09/233801"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1974,16 +2029,13 @@
   <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.375"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.1079545454545"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.375"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="155.590909090909"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.375"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1306818181818"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="229.107954545455"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1993,24 +2045,24 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2041,21 +2093,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7954545454545"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="290.443181818182"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="21.7954545454545"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4375"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.4261363636364"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,7 +2115,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2071,37 +2123,37 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,32 +2161,32 @@
     </row>
     <row r="17" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2142,42 +2194,42 @@
     </row>
     <row r="24" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,22 +2237,22 @@
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2230,9 +2282,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7954545454545"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="318.852272727273"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="21.7954545454545"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2897727272727"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.4261363636364"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2243,242 +2295,242 @@
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="11" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="11" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="11" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="11" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="11" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="11" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="11" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="11" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="11" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="11" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/writeup/seccon2016.xlsx
+++ b/writeup/seccon2016.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="150">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -1168,19 +1168,19 @@
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="31.7215909090909"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="54.4204545454546"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="31.7215909090909"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.2613636363636"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="190.318181818182"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="151.386363636364"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="31.7215909090909"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="34.875"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="59.8295454545455"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="34.875"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="31.1193181818182"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="209.5625"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="166.715909090909"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="34.875"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,7 +1439,9 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="G16" s="6" t="s">
         <v>33</v>
       </c>
@@ -1958,8 +1960,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.6306818181818"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.0625"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.0852272727273"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.0227272727273"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,8 +2038,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.1306818181818"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="229.107954545455"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.8920454545455"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.47159090909091"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="252.409090909091"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,9 +2100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4261363636364"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4375"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4772727272727"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0909090909091"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.4772727272727"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2282,9 +2289,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4261363636364"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2897727272727"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.4261363636364"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4772727272727"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9431818181818"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.4772727272727"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
